--- a/src/main/webapp/statistics/Java_omissions_dates.xlsx
+++ b/src/main/webapp/statistics/Java_omissions_dates.xlsx
@@ -12,18 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Java omissions dates by period: 04.08.15 - 28.08.15</t>
+    <t>Java omissions dates by period: 17.08.15 - 21.08.15</t>
   </si>
   <si>
     <t>Listeners</t>
   </si>
   <si>
     <t>Dates</t>
-  </si>
-  <si>
-    <t>artem</t>
   </si>
   <si>
     <t>gena</t>
@@ -136,11 +133,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:C1"/>

--- a/src/main/webapp/statistics/Java_omissions_dates.xlsx
+++ b/src/main/webapp/statistics/Java_omissions_dates.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Java omissions dates by period: 17.08.15 - 21.08.15</t>
+    <t>Java omissions dates by period: 04.08.15 - 05.08.15</t>
   </si>
   <si>
     <t>Listeners</t>
